--- a/amigo_webservice/AmigoProcessManagement/Templates/Excel/PurchaseOrder_Template.xlsx
+++ b/amigo_webservice/AmigoProcessManagement/Templates/Excel/PurchaseOrder_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92606\Desktop\Amigo_事務処理化\1_契約\01_外部設計\帳票テンプレートファイル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92606\Desktop\Amigo_事務処理化\4_ソース\phase2\jimugo\amigo_webservice\AmigoProcessManagement\Templates\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -246,17 +246,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0\ \-"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00_);&quot;¥&quot;&quot;¥&quot;\(&quot;$&quot;#,##0.00&quot;¥&quot;&quot;¥&quot;\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_)"/>
-    <numFmt numFmtId="181" formatCode="0&quot; 権限&quot;"/>
-    <numFmt numFmtId="182" formatCode="0&quot; 口&quot;"/>
-    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="184" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00_);&quot;¥&quot;&quot;¥&quot;\(&quot;$&quot;#,##0.00&quot;¥&quot;&quot;¥&quot;\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_)"/>
+    <numFmt numFmtId="180" formatCode="0&quot; 権限&quot;"/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -472,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -694,21 +693,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -739,19 +723,6 @@
       <right style="hair">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -812,23 +783,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -853,16 +824,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
@@ -872,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -913,9 +884,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="17" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,67 +896,43 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="16" fillId="0" borderId="25" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="16" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="17" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="17" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -1009,79 +953,79 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="17" fillId="0" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="17" fillId="0" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="17" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1584,68 +1528,68 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="4" style="41" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="4.88671875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="41" customWidth="1"/>
-    <col min="8" max="8" width="8" style="41" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="41" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" style="41" customWidth="1"/>
-    <col min="12" max="12" width="2.33203125" style="41" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="41"/>
+    <col min="1" max="1" width="2.33203125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="4" style="32" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="8" style="32" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="32" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="32" customWidth="1"/>
+    <col min="12" max="12" width="2.33203125" style="32" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="40" customFormat="1" ht="21">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:11" s="31" customFormat="1" ht="21">
+      <c r="A1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
-      <c r="K2" s="57"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
-      <c r="K3" s="56"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="33" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1"/>
     <row r="7" spans="1:11" ht="14.4">
-      <c r="A7" s="42"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="3" t="s">
@@ -1656,12 +1600,12 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
@@ -1669,13 +1613,13 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
       <c r="B11" s="4" t="s">
@@ -1683,21 +1627,21 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="38"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="38"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
       <c r="B13" s="4" t="s">
@@ -1710,57 +1654,57 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="38"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="B14" s="65"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1">
-      <c r="B15" s="43"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="B15" s="34"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1">
-      <c r="F16" s="44"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B17" s="45"/>
-      <c r="I17" s="38" t="s">
+      <c r="B17" s="36"/>
+      <c r="I17" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="16.5" customHeight="1">
-      <c r="I18" s="38"/>
-      <c r="J18" s="41" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="16.5" customHeight="1">
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B21" s="45"/>
+      <c r="B21" s="36"/>
     </row>
     <row r="22" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="B22" s="5" t="s">
@@ -1773,7 +1717,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="66"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="9" t="s">
         <v>2</v>
       </c>
@@ -1785,261 +1729,261 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B23" s="54"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="23"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="23"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="23"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="23"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="23"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="23"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="23"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="22"/>
     </row>
     <row r="30" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="23"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="22"/>
     </row>
     <row r="32" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="22"/>
     </row>
     <row r="34" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="22"/>
     </row>
     <row r="35" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="22"/>
     </row>
     <row r="36" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="22"/>
     </row>
     <row r="37" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="22"/>
     </row>
     <row r="38" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="22"/>
     </row>
     <row r="39" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="22"/>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="23"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="22"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B41" s="54"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="23"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="22"/>
     </row>
     <row r="42" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="26"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="23"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="20"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="19"/>
     </row>
     <row r="50" spans="11:11">
-      <c r="K50" s="58"/>
+      <c r="K50" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="6">
